--- a/docs/documentation/Impact of Requirement change on FRS (6).xlsx
+++ b/docs/documentation/Impact of Requirement change on FRS (6).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1046065\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1036862\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51227356-ADD8-4784-AE46-05C43FD0197C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7480" windowHeight="2740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP_Feature_Roadmap" sheetId="5" r:id="rId1"/>
@@ -20,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_Feature_Roadmap!$A$2:$U$175</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="601">
   <si>
     <t>S.No.</t>
   </si>
@@ -5592,11 +5593,14 @@
     <t xml:space="preserve">
 Need to be revisited.As dicussed this is classified as a desirable feature.Hence please clarify if this is part of V1 or V2.</t>
   </si>
+  <si>
+    <t>MOS-22039</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
@@ -6324,7 +6328,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -6341,7 +6345,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="MINDTREE" refreshedDate="43448.660082060182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="64">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MINDTREE" refreshedDate="43448.660082060182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="64" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:U70" sheet="MOSIP_Feature_Roadmap"/>
   </cacheSource>
@@ -7502,7 +7506,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
@@ -7850,13 +7854,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W131" sqref="W131"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V2" sqref="A2:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -7978,7 +7982,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="4" customFormat="1" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" s="4" customFormat="1" ht="140" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -8040,7 +8044,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="4" customFormat="1" ht="154" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" s="4" customFormat="1" ht="154" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -8101,7 +8105,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="4" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -8163,7 +8167,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="4" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" s="4" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -8225,7 +8229,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="4" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" s="4" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -8287,7 +8291,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="4" customFormat="1" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" s="4" customFormat="1" ht="140" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -8349,7 +8353,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="4" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" s="4" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -8409,7 +8413,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="4" customFormat="1" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" s="4" customFormat="1" ht="98" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -8469,7 +8473,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="1" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -8523,7 +8527,7 @@
       <c r="T11" s="30"/>
       <c r="U11" s="21"/>
     </row>
-    <row r="12" spans="1:22" s="1" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -8580,7 +8584,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="1" customFormat="1" ht="224" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" s="1" customFormat="1" ht="224" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -8631,7 +8635,7 @@
       <c r="T13" s="30"/>
       <c r="U13" s="21"/>
     </row>
-    <row r="14" spans="1:22" s="1" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -8691,7 +8695,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="1" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -8753,7 +8757,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="1" customFormat="1" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -8815,7 +8819,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="4" customFormat="1" ht="182" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" s="4" customFormat="1" ht="182" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -8877,7 +8881,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="1" customFormat="1" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -8937,7 +8941,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="4" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -8999,7 +9003,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="1" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -9047,7 +9051,7 @@
       <c r="T20" s="30"/>
       <c r="U20" s="21"/>
     </row>
-    <row r="21" spans="1:22" s="4" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -9095,7 +9099,7 @@
       <c r="T21" s="30"/>
       <c r="U21" s="21"/>
     </row>
-    <row r="22" spans="1:22" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" ht="84" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -9156,7 +9160,7 @@
       </c>
       <c r="V22" s="10"/>
     </row>
-    <row r="23" spans="1:22" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" ht="84" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -9217,7 +9221,7 @@
       </c>
       <c r="V23" s="10"/>
     </row>
-    <row r="24" spans="1:22" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" ht="98" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -9280,7 +9284,7 @@
       </c>
       <c r="V24" s="10"/>
     </row>
-    <row r="25" spans="1:22" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" ht="70" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -9331,7 +9335,7 @@
       <c r="U25" s="21"/>
       <c r="V25" s="10"/>
     </row>
-    <row r="26" spans="1:22" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" ht="84" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -9382,7 +9386,7 @@
       <c r="U26" s="21"/>
       <c r="V26" s="10"/>
     </row>
-    <row r="27" spans="1:22" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" ht="84" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -9443,7 +9447,7 @@
       </c>
       <c r="V27" s="10"/>
     </row>
-    <row r="28" spans="1:22" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" ht="70" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -9506,7 +9510,7 @@
       </c>
       <c r="V28" s="10"/>
     </row>
-    <row r="29" spans="1:22" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" ht="70" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -9557,7 +9561,7 @@
       <c r="U29" s="21"/>
       <c r="V29" s="10"/>
     </row>
-    <row r="30" spans="1:22" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" ht="56" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -9614,7 +9618,7 @@
       <c r="U30" s="14"/>
       <c r="V30" s="10"/>
     </row>
-    <row r="31" spans="1:22" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" ht="98" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -9739,7 +9743,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="8" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" s="8" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -9797,7 +9801,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="8" customFormat="1" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" s="8" customFormat="1" ht="98" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -9859,7 +9863,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="10" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" s="10" customFormat="1" ht="70" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -9916,7 +9920,7 @@
       <c r="T35" s="30"/>
       <c r="U35" s="14"/>
     </row>
-    <row r="36" spans="1:21" s="10" customFormat="1" ht="182" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" s="10" customFormat="1" ht="182" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -9980,7 +9984,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="10" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" s="10" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -10044,7 +10048,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="10" customFormat="1" ht="154" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" s="10" customFormat="1" ht="154" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -10108,7 +10112,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:21" s="10" customFormat="1" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" s="10" customFormat="1" ht="98" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -10172,7 +10176,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="10" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -10226,7 +10230,7 @@
       <c r="T40" s="30"/>
       <c r="U40" s="32"/>
     </row>
-    <row r="41" spans="1:21" s="10" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -10284,7 +10288,7 @@
       <c r="T41" s="30"/>
       <c r="U41" s="32"/>
     </row>
-    <row r="42" spans="1:21" s="10" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -10338,7 +10342,7 @@
       <c r="T42" s="30"/>
       <c r="U42" s="32"/>
     </row>
-    <row r="43" spans="1:21" s="10" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" s="10" customFormat="1" ht="56" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -10396,7 +10400,7 @@
       <c r="T43" s="30"/>
       <c r="U43" s="32"/>
     </row>
-    <row r="44" spans="1:21" s="10" customFormat="1" ht="252" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" s="10" customFormat="1" ht="252" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -10456,7 +10460,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="10" customFormat="1" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" s="10" customFormat="1" ht="98" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -10514,7 +10518,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="10" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -10576,7 +10580,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="10" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" s="10" customFormat="1" ht="70" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -10638,7 +10642,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="10" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" s="10" customFormat="1" ht="70" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -10688,7 +10692,7 @@
       <c r="T48" s="30"/>
       <c r="U48" s="32"/>
     </row>
-    <row r="49" spans="1:21" s="10" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -10750,7 +10754,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="10" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" s="10" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -10813,7 +10817,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="51" spans="1:21" s="10" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -10867,7 +10871,7 @@
       <c r="T51" s="30"/>
       <c r="U51" s="32"/>
     </row>
-    <row r="52" spans="1:21" s="10" customFormat="1" ht="154" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" s="10" customFormat="1" ht="154" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -10917,7 +10921,7 @@
       <c r="T52" s="30"/>
       <c r="U52" s="32"/>
     </row>
-    <row r="53" spans="1:21" s="10" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" s="10" customFormat="1" ht="56" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -10977,7 +10981,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="10" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -11027,7 +11031,7 @@
       <c r="T54" s="30"/>
       <c r="U54" s="32"/>
     </row>
-    <row r="55" spans="1:21" s="10" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -11081,7 +11085,7 @@
       <c r="T55" s="30"/>
       <c r="U55" s="32"/>
     </row>
-    <row r="56" spans="1:21" s="10" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" s="10" customFormat="1" ht="70" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -11140,7 +11144,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="10" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" s="10" customFormat="1" ht="56" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>55</v>
       </c>
@@ -11199,7 +11203,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:21" s="10" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -11259,7 +11263,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="10" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>57</v>
       </c>
@@ -11313,7 +11317,7 @@
       <c r="T59" s="30"/>
       <c r="U59" s="32"/>
     </row>
-    <row r="60" spans="1:21" s="10" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" s="10" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>58</v>
       </c>
@@ -11367,7 +11371,7 @@
       <c r="T60" s="30"/>
       <c r="U60" s="32"/>
     </row>
-    <row r="61" spans="1:21" s="10" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" s="10" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>59</v>
       </c>
@@ -11424,7 +11428,7 @@
       <c r="T61" s="30"/>
       <c r="U61" s="32"/>
     </row>
-    <row r="62" spans="1:21" s="10" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>60</v>
       </c>
@@ -11487,7 +11491,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:21" s="10" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" s="10" customFormat="1" ht="56" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>61</v>
       </c>
@@ -11548,7 +11552,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:21" s="10" customFormat="1" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" s="10" customFormat="1" ht="98" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>62</v>
       </c>
@@ -11599,7 +11603,7 @@
       <c r="T64" s="33"/>
       <c r="U64" s="32"/>
     </row>
-    <row r="65" spans="1:23" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:23" ht="42" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>63</v>
       </c>
@@ -11651,7 +11655,7 @@
       <c r="U65" s="32"/>
       <c r="V65" s="10"/>
     </row>
-    <row r="66" spans="1:23" ht="182" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:23" ht="182" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>64</v>
       </c>
@@ -11715,7 +11719,7 @@
       </c>
       <c r="V66" s="10"/>
     </row>
-    <row r="67" spans="1:23" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:23" ht="112" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>65</v>
       </c>
@@ -11837,7 +11841,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="252" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:23" ht="252" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>67</v>
       </c>
@@ -11898,7 +11902,7 @@
       </c>
       <c r="V69" s="10"/>
     </row>
-    <row r="70" spans="1:23" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:23" ht="56" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>68</v>
       </c>
@@ -11957,7 +11961,7 @@
       <c r="U70" s="32"/>
       <c r="V70" s="10"/>
     </row>
-    <row r="71" spans="1:23" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:23" ht="126" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>69</v>
       </c>
@@ -12081,7 +12085,7 @@
       <c r="V72" s="31"/>
       <c r="W72" s="32"/>
     </row>
-    <row r="73" spans="1:23" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:23" ht="140" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>71</v>
       </c>
@@ -12141,7 +12145,7 @@
       <c r="V73" s="39"/>
       <c r="W73" s="28"/>
     </row>
-    <row r="74" spans="1:23" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:23" ht="84" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>72</v>
       </c>
@@ -12196,7 +12200,7 @@
       <c r="V74" s="5"/>
       <c r="W74" s="32"/>
     </row>
-    <row r="75" spans="1:23" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:23" ht="56" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>73</v>
       </c>
@@ -12258,7 +12262,7 @@
       </c>
       <c r="V75" s="10"/>
     </row>
-    <row r="76" spans="1:23" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:23" ht="112" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>74</v>
       </c>
@@ -12320,7 +12324,7 @@
       </c>
       <c r="V76" s="10"/>
     </row>
-    <row r="77" spans="1:23" ht="196" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:23" ht="196" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>75</v>
       </c>
@@ -12381,7 +12385,7 @@
       </c>
       <c r="V77" s="10"/>
     </row>
-    <row r="78" spans="1:23" ht="154" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:23" ht="154" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>75</v>
       </c>
@@ -12443,7 +12447,7 @@
       <c r="V78" s="5"/>
       <c r="W78" s="32"/>
     </row>
-    <row r="79" spans="1:23" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:23" ht="112" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>76</v>
       </c>
@@ -12503,7 +12507,7 @@
       <c r="V79" s="5"/>
       <c r="W79" s="32"/>
     </row>
-    <row r="80" spans="1:23" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:23" ht="126" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>77</v>
       </c>
@@ -12565,7 +12569,7 @@
       <c r="V80" s="5"/>
       <c r="W80" s="32"/>
     </row>
-    <row r="81" spans="1:23" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:23" ht="70" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>78</v>
       </c>
@@ -12625,7 +12629,7 @@
       <c r="V81" s="73"/>
       <c r="W81" s="32"/>
     </row>
-    <row r="82" spans="1:23" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:23" ht="140" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>79</v>
       </c>
@@ -12687,7 +12691,7 @@
       <c r="V82" s="73"/>
       <c r="W82" s="32"/>
     </row>
-    <row r="83" spans="1:23" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:23" ht="98" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>80</v>
       </c>
@@ -12747,7 +12751,7 @@
       </c>
       <c r="V83" s="10"/>
     </row>
-    <row r="84" spans="1:23" ht="210" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:23" ht="210" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>81</v>
       </c>
@@ -12809,7 +12813,7 @@
       <c r="V84" s="73"/>
       <c r="W84" s="32"/>
     </row>
-    <row r="85" spans="1:23" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:23" ht="70" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>82</v>
       </c>
@@ -12872,7 +12876,7 @@
       </c>
       <c r="V85" s="10"/>
     </row>
-    <row r="86" spans="1:23" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:23" ht="70" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>83</v>
       </c>
@@ -12933,7 +12937,7 @@
       <c r="U86" s="32"/>
       <c r="V86" s="10"/>
     </row>
-    <row r="87" spans="1:23" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:23" ht="98" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>84</v>
       </c>
@@ -12993,7 +12997,7 @@
       </c>
       <c r="V87" s="10"/>
     </row>
-    <row r="88" spans="1:23" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:23" ht="112" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>85</v>
       </c>
@@ -13055,7 +13059,7 @@
       </c>
       <c r="V88" s="10"/>
     </row>
-    <row r="89" spans="1:23" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:23" ht="126" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>86</v>
       </c>
@@ -13111,7 +13115,7 @@
       </c>
       <c r="V89" s="10"/>
     </row>
-    <row r="90" spans="1:23" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:23" ht="70" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <v>87</v>
       </c>
@@ -13161,7 +13165,7 @@
       <c r="U90" s="32"/>
       <c r="V90" s="10"/>
     </row>
-    <row r="91" spans="1:23" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:23" ht="56" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>88</v>
       </c>
@@ -13209,7 +13213,7 @@
       <c r="U91" s="32"/>
       <c r="V91" s="10"/>
     </row>
-    <row r="92" spans="1:23" ht="168" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:23" ht="168" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <v>89</v>
       </c>
@@ -13270,7 +13274,7 @@
       </c>
       <c r="V92" s="10"/>
     </row>
-    <row r="93" spans="1:23" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:23" ht="42" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>90</v>
       </c>
@@ -13329,7 +13333,7 @@
       <c r="U93" s="32"/>
       <c r="V93" s="10"/>
     </row>
-    <row r="94" spans="1:23" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:23" ht="56" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>91</v>
       </c>
@@ -13390,7 +13394,7 @@
       </c>
       <c r="V94" s="10"/>
     </row>
-    <row r="95" spans="1:23" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:23" ht="56" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>92</v>
       </c>
@@ -13451,7 +13455,7 @@
       </c>
       <c r="V95" s="10"/>
     </row>
-    <row r="96" spans="1:23" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:23" ht="56" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
         <v>93</v>
       </c>
@@ -13512,7 +13516,7 @@
       </c>
       <c r="V96" s="10"/>
     </row>
-    <row r="97" spans="1:22" ht="154" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:22" ht="154" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
         <v>94</v>
       </c>
@@ -13622,7 +13626,7 @@
       <c r="T98" s="5"/>
       <c r="U98" s="32"/>
     </row>
-    <row r="99" spans="1:22" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:22" ht="126" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
         <v>96</v>
       </c>
@@ -13681,7 +13685,7 @@
       <c r="U99" s="32"/>
       <c r="V99" s="10"/>
     </row>
-    <row r="100" spans="1:22" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:22" ht="98" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
         <v>97</v>
       </c>
@@ -13742,7 +13746,7 @@
       </c>
       <c r="V100" s="10"/>
     </row>
-    <row r="101" spans="1:22" ht="280" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:22" ht="280" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
         <v>98</v>
       </c>
@@ -13803,7 +13807,7 @@
       </c>
       <c r="V101" s="10"/>
     </row>
-    <row r="102" spans="1:22" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:22" ht="42" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
         <v>99</v>
       </c>
@@ -13862,7 +13866,7 @@
       <c r="U102" s="32"/>
       <c r="V102" s="10"/>
     </row>
-    <row r="103" spans="1:22" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
         <v>100</v>
       </c>
@@ -13923,7 +13927,7 @@
       </c>
       <c r="V103" s="10"/>
     </row>
-    <row r="104" spans="1:22" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <v>101</v>
       </c>
@@ -13984,7 +13988,7 @@
       </c>
       <c r="V104" s="10"/>
     </row>
-    <row r="105" spans="1:22" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:22" ht="84" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
         <v>102</v>
       </c>
@@ -14044,7 +14048,7 @@
       <c r="U105" s="33"/>
       <c r="V105" s="10"/>
     </row>
-    <row r="106" spans="1:22" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
         <v>103</v>
       </c>
@@ -14155,7 +14159,7 @@
       <c r="T107" s="5"/>
       <c r="U107" s="32"/>
     </row>
-    <row r="108" spans="1:22" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:22" ht="126" x14ac:dyDescent="0.35">
       <c r="A108" s="5">
         <v>105</v>
       </c>
@@ -14215,7 +14219,7 @@
       </c>
       <c r="V108" s="10"/>
     </row>
-    <row r="109" spans="1:22" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:22" ht="98" x14ac:dyDescent="0.35">
       <c r="A109" s="5">
         <v>111</v>
       </c>
@@ -14271,7 +14275,7 @@
       <c r="U109" s="32"/>
       <c r="V109" s="10"/>
     </row>
-    <row r="110" spans="1:22" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:22" ht="56" x14ac:dyDescent="0.35">
       <c r="A110" s="5">
         <v>112</v>
       </c>
@@ -14327,7 +14331,7 @@
       <c r="U110" s="32"/>
       <c r="V110" s="10"/>
     </row>
-    <row r="111" spans="1:22" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:22" ht="70" x14ac:dyDescent="0.35">
       <c r="A111" s="5">
         <v>113</v>
       </c>
@@ -14385,7 +14389,7 @@
       <c r="U111" s="32"/>
       <c r="V111" s="10"/>
     </row>
-    <row r="112" spans="1:22" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:22" ht="70" x14ac:dyDescent="0.35">
       <c r="A112" s="5">
         <v>114</v>
       </c>
@@ -14443,7 +14447,7 @@
       <c r="U112" s="32"/>
       <c r="V112" s="10"/>
     </row>
-    <row r="113" spans="1:22" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:22" ht="56" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
         <v>115</v>
       </c>
@@ -14501,7 +14505,7 @@
       <c r="U113" s="32"/>
       <c r="V113" s="10"/>
     </row>
-    <row r="114" spans="1:22" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:22" ht="42" x14ac:dyDescent="0.35">
       <c r="A114" s="5">
         <v>116</v>
       </c>
@@ -14559,7 +14563,7 @@
       <c r="U114" s="32"/>
       <c r="V114" s="10"/>
     </row>
-    <row r="115" spans="1:22" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:22" ht="42" x14ac:dyDescent="0.35">
       <c r="A115" s="5">
         <v>117</v>
       </c>
@@ -14615,7 +14619,7 @@
       <c r="U115" s="32"/>
       <c r="V115" s="10"/>
     </row>
-    <row r="116" spans="1:22" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:22" ht="42" x14ac:dyDescent="0.35">
       <c r="A116" s="5">
         <v>118</v>
       </c>
@@ -14662,7 +14666,7 @@
       <c r="U116" s="32"/>
       <c r="V116" s="10"/>
     </row>
-    <row r="117" spans="1:22" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:22" ht="70" x14ac:dyDescent="0.35">
       <c r="A117" s="39">
         <v>119</v>
       </c>
@@ -14767,7 +14771,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="119" spans="1:22" ht="180.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:22" ht="180.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
         <v>121</v>
       </c>
@@ -14815,7 +14819,7 @@
       <c r="U119" s="32"/>
       <c r="V119" s="10"/>
     </row>
-    <row r="120" spans="1:22" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A120" s="5">
         <f>1+A119</f>
         <v>122</v>
@@ -14862,7 +14866,7 @@
       <c r="U120" s="32"/>
       <c r="V120" s="10"/>
     </row>
-    <row r="121" spans="1:22" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:22" ht="56" x14ac:dyDescent="0.35">
       <c r="A121" s="5">
         <v>123</v>
       </c>
@@ -14910,7 +14914,7 @@
       <c r="U121" s="32"/>
       <c r="V121" s="10"/>
     </row>
-    <row r="122" spans="1:22" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:22" ht="42" x14ac:dyDescent="0.35">
       <c r="A122" s="5">
         <v>124</v>
       </c>
@@ -14958,7 +14962,7 @@
       <c r="U122" s="32"/>
       <c r="V122" s="10"/>
     </row>
-    <row r="123" spans="1:22" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:22" ht="112" x14ac:dyDescent="0.35">
       <c r="A123" s="5">
         <v>125</v>
       </c>
@@ -15006,7 +15010,7 @@
       <c r="U123" s="32"/>
       <c r="V123" s="10"/>
     </row>
-    <row r="124" spans="1:22" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:22" ht="112" x14ac:dyDescent="0.35">
       <c r="A124" s="5">
         <v>126</v>
       </c>
@@ -15102,7 +15106,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="126" spans="1:22" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A126" s="5">
         <v>128</v>
       </c>
@@ -15453,7 +15457,7 @@
       <c r="T132" s="32"/>
       <c r="U132" s="32"/>
     </row>
-    <row r="133" spans="1:22" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A133" s="92">
         <v>135</v>
       </c>
@@ -15501,7 +15505,7 @@
       <c r="U133" s="33"/>
       <c r="V133" s="10"/>
     </row>
-    <row r="134" spans="1:22" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:22" ht="84" x14ac:dyDescent="0.35">
       <c r="A134" s="92">
         <v>136</v>
       </c>
@@ -15547,7 +15551,7 @@
       <c r="U134" s="33"/>
       <c r="V134" s="10"/>
     </row>
-    <row r="135" spans="1:22" ht="266" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:22" ht="266" x14ac:dyDescent="0.35">
       <c r="A135" s="92">
         <v>137</v>
       </c>
@@ -15593,7 +15597,7 @@
       <c r="U135" s="33"/>
       <c r="V135" s="10"/>
     </row>
-    <row r="136" spans="1:22" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:22" ht="70" x14ac:dyDescent="0.35">
       <c r="A136" s="92">
         <v>138</v>
       </c>
@@ -15639,7 +15643,7 @@
       <c r="U136" s="33"/>
       <c r="V136" s="10"/>
     </row>
-    <row r="137" spans="1:22" ht="196" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:22" ht="196" x14ac:dyDescent="0.35">
       <c r="A137" s="92">
         <v>139</v>
       </c>
@@ -15685,7 +15689,7 @@
       <c r="U137" s="33"/>
       <c r="V137" s="10"/>
     </row>
-    <row r="138" spans="1:22" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:22" ht="98" x14ac:dyDescent="0.35">
       <c r="A138" s="92">
         <v>140</v>
       </c>
@@ -15731,7 +15735,7 @@
       <c r="U138" s="33"/>
       <c r="V138" s="10"/>
     </row>
-    <row r="139" spans="1:22" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:22" ht="84" x14ac:dyDescent="0.35">
       <c r="A139" s="92">
         <v>141</v>
       </c>
@@ -15777,7 +15781,7 @@
       <c r="U139" s="33"/>
       <c r="V139" s="10"/>
     </row>
-    <row r="140" spans="1:22" ht="196" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:22" ht="196" x14ac:dyDescent="0.35">
       <c r="A140" s="92">
         <v>142</v>
       </c>
@@ -15823,7 +15827,7 @@
       <c r="U140" s="33"/>
       <c r="V140" s="10"/>
     </row>
-    <row r="141" spans="1:22" ht="196" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:22" ht="196" x14ac:dyDescent="0.35">
       <c r="A141" s="92">
         <v>143</v>
       </c>
@@ -15869,7 +15873,7 @@
       <c r="U141" s="33"/>
       <c r="V141" s="10"/>
     </row>
-    <row r="142" spans="1:22" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:22" ht="70" x14ac:dyDescent="0.35">
       <c r="A142" s="92">
         <v>144</v>
       </c>
@@ -15915,7 +15919,7 @@
       <c r="U142" s="33"/>
       <c r="V142" s="10"/>
     </row>
-    <row r="143" spans="1:22" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:22" ht="84" x14ac:dyDescent="0.35">
       <c r="A143" s="92">
         <v>145</v>
       </c>
@@ -15961,7 +15965,7 @@
       <c r="U143" s="33"/>
       <c r="V143" s="10"/>
     </row>
-    <row r="144" spans="1:22" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:22" ht="112" x14ac:dyDescent="0.35">
       <c r="A144" s="92">
         <v>146</v>
       </c>
@@ -16007,7 +16011,7 @@
       <c r="U144" s="33"/>
       <c r="V144" s="10"/>
     </row>
-    <row r="145" spans="1:21" s="10" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:21" s="10" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A145" s="92">
         <v>147</v>
       </c>
@@ -16051,7 +16055,7 @@
       <c r="T145" s="33"/>
       <c r="U145" s="33"/>
     </row>
-    <row r="146" spans="1:21" s="10" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:21" s="10" customFormat="1" ht="70" x14ac:dyDescent="0.35">
       <c r="A146" s="92">
         <v>148</v>
       </c>
@@ -16095,7 +16099,7 @@
       <c r="T146" s="33"/>
       <c r="U146" s="33"/>
     </row>
-    <row r="147" spans="1:21" s="10" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:21" s="10" customFormat="1" ht="70" x14ac:dyDescent="0.35">
       <c r="A147" s="92">
         <v>149</v>
       </c>
@@ -16139,7 +16143,7 @@
       <c r="T147" s="33"/>
       <c r="U147" s="33"/>
     </row>
-    <row r="148" spans="1:21" s="10" customFormat="1" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:21" s="10" customFormat="1" ht="140" x14ac:dyDescent="0.35">
       <c r="A148" s="100">
         <v>150</v>
       </c>
@@ -16183,7 +16187,7 @@
       <c r="T148" s="88"/>
       <c r="U148" s="88"/>
     </row>
-    <row r="149" spans="1:21" s="10" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:21" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A149" s="5">
         <f>1+A126</f>
         <v>129</v>
@@ -16235,7 +16239,7 @@
       </c>
       <c r="U149" s="32"/>
     </row>
-    <row r="150" spans="1:21" s="10" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:21" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A150" s="5">
         <f t="shared" ref="A150:A153" si="8">1+A127</f>
         <v>130</v>
@@ -16287,7 +16291,7 @@
       </c>
       <c r="U150" s="32"/>
     </row>
-    <row r="151" spans="1:21" s="10" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:21" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A151" s="5">
         <f t="shared" si="8"/>
         <v>131</v>
@@ -16336,7 +16340,7 @@
       <c r="T151" s="2"/>
       <c r="U151" s="32"/>
     </row>
-    <row r="152" spans="1:21" s="10" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:21" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A152" s="5">
         <f t="shared" si="8"/>
         <v>132</v>
@@ -16382,7 +16386,7 @@
       <c r="T152" s="5"/>
       <c r="U152" s="32"/>
     </row>
-    <row r="153" spans="1:21" s="10" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:21" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A153" s="5">
         <f t="shared" si="8"/>
         <v>133</v>
@@ -16434,7 +16438,7 @@
       </c>
       <c r="U153" s="32"/>
     </row>
-    <row r="154" spans="1:21" s="10" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:21" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A154" s="92">
         <v>151</v>
       </c>
@@ -16479,7 +16483,7 @@
       <c r="T154" s="5"/>
       <c r="U154" s="32"/>
     </row>
-    <row r="155" spans="1:21" s="10" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:21" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A155" s="92">
         <v>152</v>
       </c>
@@ -16524,7 +16528,7 @@
       <c r="T155" s="5"/>
       <c r="U155" s="32"/>
     </row>
-    <row r="156" spans="1:21" s="10" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:21" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A156" s="92">
         <v>153</v>
       </c>
@@ -16569,7 +16573,7 @@
       <c r="T156" s="5"/>
       <c r="U156" s="32"/>
     </row>
-    <row r="157" spans="1:21" s="10" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:21" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A157" s="92">
         <v>154</v>
       </c>
@@ -16614,7 +16618,7 @@
       <c r="T157" s="5"/>
       <c r="U157" s="32"/>
     </row>
-    <row r="158" spans="1:21" s="10" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:21" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A158" s="92">
         <v>155</v>
       </c>
@@ -16659,7 +16663,7 @@
       <c r="T158" s="5"/>
       <c r="U158" s="32"/>
     </row>
-    <row r="159" spans="1:21" s="10" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:21" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A159" s="5">
         <v>134</v>
       </c>
@@ -16710,7 +16714,7 @@
       <c r="T159" s="5"/>
       <c r="U159" s="32"/>
     </row>
-    <row r="160" spans="1:21" s="10" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:21" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.35">
       <c r="A160" s="5">
         <v>135</v>
       </c>
@@ -16761,7 +16765,7 @@
       <c r="T160" s="5"/>
       <c r="U160" s="32"/>
     </row>
-    <row r="161" spans="1:22" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A161" s="39">
         <v>136</v>
       </c>
@@ -17349,7 +17353,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="172" spans="1:22" s="106" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:22" s="106" customFormat="1" ht="70" x14ac:dyDescent="0.35">
       <c r="A172" s="5">
         <v>150</v>
       </c>
@@ -17395,7 +17399,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="173" spans="1:22" s="106" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:22" s="106" customFormat="1" ht="70" x14ac:dyDescent="0.35">
       <c r="A173" s="5">
         <v>151</v>
       </c>
@@ -17449,7 +17453,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="174" spans="1:22" s="106" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:22" s="106" customFormat="1" ht="70" x14ac:dyDescent="0.35">
       <c r="A174" s="5">
         <v>152</v>
       </c>
@@ -17495,84 +17499,102 @@
         <v>595</v>
       </c>
     </row>
-    <row r="175" spans="1:22" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:22" ht="70" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>153</v>
       </c>
-      <c r="B175" s="5"/>
-      <c r="C175" s="6">
+      <c r="B175" s="39"/>
+      <c r="C175" s="37">
         <v>43556</v>
       </c>
-      <c r="D175" s="32" t="s">
+      <c r="D175" s="28" t="s">
         <v>583</v>
       </c>
-      <c r="E175" s="14" t="s">
+      <c r="E175" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="F175" s="14" t="s">
+      <c r="F175" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G175" s="32" t="s">
+      <c r="G175" s="28" t="s">
         <v>587</v>
       </c>
-      <c r="I175" s="14"/>
-      <c r="J175" s="14"/>
-      <c r="K175" s="14"/>
-      <c r="L175" s="14">
+      <c r="I175" s="15"/>
+      <c r="J175" s="15"/>
+      <c r="K175" s="15"/>
+      <c r="L175" s="15">
         <v>1</v>
       </c>
-      <c r="M175" s="32" t="s">
+      <c r="M175" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="N175" s="14" t="s">
+      <c r="N175" s="15" t="s">
         <v>588</v>
       </c>
-      <c r="O175" s="6">
+      <c r="O175" s="37">
         <v>43556</v>
       </c>
-      <c r="Q175" s="5"/>
-      <c r="R175" s="5"/>
-      <c r="S175" s="33"/>
-      <c r="T175" s="5"/>
-      <c r="U175" s="14"/>
+      <c r="Q175" s="39"/>
+      <c r="R175" s="39"/>
+      <c r="S175" s="88"/>
+      <c r="T175" s="39"/>
+      <c r="U175" s="15"/>
       <c r="V175" s="8" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="176" spans="1:22" ht="112" x14ac:dyDescent="0.35">
-      <c r="G176" s="3" t="s">
+      <c r="A176" s="5">
+        <v>154</v>
+      </c>
+      <c r="B176" s="31" t="s">
+        <v>600</v>
+      </c>
+      <c r="C176" s="6">
+        <v>43556</v>
+      </c>
+      <c r="D176" s="32"/>
+      <c r="E176" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F176" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G176" s="32" t="s">
         <v>597</v>
       </c>
-      <c r="V176" s="8" t="s">
+      <c r="H176" s="14"/>
+      <c r="I176" s="32"/>
+      <c r="J176" s="32"/>
+      <c r="K176" s="32"/>
+      <c r="L176" s="32"/>
+      <c r="M176" s="32"/>
+      <c r="N176" s="32"/>
+      <c r="O176" s="32"/>
+      <c r="P176" s="31"/>
+      <c r="Q176" s="14"/>
+      <c r="R176" s="14"/>
+      <c r="S176" s="14"/>
+      <c r="T176" s="5"/>
+      <c r="U176" s="32"/>
+      <c r="V176" s="87" t="s">
         <v>598</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:U175">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Pre-registration"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="New"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:U1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B126" r:id="rId1" display="https://mosipid.atlassian.net/browse/MOS-18100"/>
-    <hyperlink ref="B127" r:id="rId2" display="https://mosipid.atlassian.net/browse/MOS-20516"/>
-    <hyperlink ref="B128" r:id="rId3" display="https://mosipid.atlassian.net/browse/MOS-20302"/>
-    <hyperlink ref="B129" r:id="rId4" display="https://mosipid.atlassian.net/browse/MOS-20303"/>
-    <hyperlink ref="B130" r:id="rId5" display="https://mosipid.atlassian.net/browse/MOS-20304"/>
-    <hyperlink ref="B131" r:id="rId6" display="https://mosipid.atlassian.net/browse/MOS-20306"/>
-    <hyperlink ref="B132" r:id="rId7" display="https://mosipid.atlassian.net/browse/MOS-20308"/>
-    <hyperlink ref="B133" r:id="rId8" display="https://mosipid.atlassian.net/browse/MOS-20783"/>
-    <hyperlink ref="D133" r:id="rId9"/>
+    <hyperlink ref="B126" r:id="rId1" display="https://mosipid.atlassian.net/browse/MOS-18100" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B127" r:id="rId2" display="https://mosipid.atlassian.net/browse/MOS-20516" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B128" r:id="rId3" display="https://mosipid.atlassian.net/browse/MOS-20302" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B129" r:id="rId4" display="https://mosipid.atlassian.net/browse/MOS-20303" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B130" r:id="rId5" display="https://mosipid.atlassian.net/browse/MOS-20304" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B131" r:id="rId6" display="https://mosipid.atlassian.net/browse/MOS-20306" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B132" r:id="rId7" display="https://mosipid.atlassian.net/browse/MOS-20308" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B133" r:id="rId8" display="https://mosipid.atlassian.net/browse/MOS-20783" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D133" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
@@ -17580,7 +17602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -17640,7 +17662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -17758,7 +17780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -17807,38 +17829,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D32E068FDE16E34B8075022FB1536456" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d905b7d076fda08b8ad7ac1f301e6870">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7784986bdb25cf89cb05135ef15ccb6c" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -18010,31 +18000,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A013D4-4E69-4E0D-8B8F-1AA53B7A2CEA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18050,4 +18048,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>